--- a/biology/Microbiologie/Gardnerella_(bactérie)/Gardnerella_(bactérie).xlsx
+++ b/biology/Microbiologie/Gardnerella_(bactérie)/Gardnerella_(bactérie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gardnerella_(bact%C3%A9rie)</t>
+          <t>Gardnerella_(bactérie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gardnerella est un genre de bactéries de la famille des Bifidobacteriaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gardnerella_(bact%C3%A9rie)</t>
+          <t>Gardnerella_(bactérie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries du genre Gardnerella ont une paroi proche de celle des bactéries gram-positives, mais la faible épaisseur de celle-ci entraîne une Coloration de Gram variable voire de type gram-négative[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries du genre Gardnerella ont une paroi proche de celle des bactéries gram-positives, mais la faible épaisseur de celle-ci entraîne une Coloration de Gram variable voire de type gram-négative.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gardnerella_(bact%C3%A9rie)</t>
+          <t>Gardnerella_(bactérie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (11 mai 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (11 mai 2024) :
 Gardnerella greenwoodii Sousa et al. 2023
 Gardnerella leopoldii Vaneechoutte et al. 2019
 Gardnerella pickettii Sousa et al. 2023
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gardnerella_(bact%C3%A9rie)</t>
+          <t>Gardnerella_(bactérie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gardnerella Greenwood &amp; Pickett 1980[2].
-L'espèce type est : Gardnerella vaginalis (Gardner &amp; Dukes 1955) Greenwood &amp; Pickett 1980[2].
-Étymologie
-L'étymologie du nom de genre Gardnerella est la suivante : Gard.ner.el’la. N.L. fem. dim. n. Gardnerella, nommé d'après Hermann L. Gardner[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gardnerella Greenwood &amp; Pickett 1980.
+L'espèce type est : Gardnerella vaginalis (Gardner &amp; Dukes 1955) Greenwood &amp; Pickett 1980.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gardnerella_(bactérie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gardnerella_(bact%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Gardnerella est la suivante : Gard.ner.el’la. N.L. fem. dim. n. Gardnerella, nommé d'après Hermann L. Gardner.
 </t>
         </is>
       </c>
